--- a/tests/testing_files/modification_rename_id_error.xlsx
+++ b/tests/testing_files/modification_rename_id_error.xlsx
@@ -8,52 +8,58 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sparda\Desktop\Moseley Lab\Code\MESSES\tests\testing_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9CF1FCA-0673-4836-B114-1F5596E85B8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619CB579-7EE3-4B27-988F-B7C957387BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="1890" windowWidth="23640" windowHeight="12015" xr2:uid="{74622A20-6192-4670-9736-88E18B0F4086}"/>
+    <workbookView xWindow="3360" yWindow="2220" windowWidth="23640" windowHeight="12015" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#convert" sheetId="2" r:id="rId1"/>
-    <sheet name="#export" sheetId="1" r:id="rId2"/>
+    <sheet name="#modify" sheetId="1" r:id="rId1"/>
+    <sheet name="#export" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="all_samples">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>#tags</t>
   </si>
   <si>
+    <t>#sample.number.value</t>
+  </si>
+  <si>
+    <t>#sample.id.rename.tyui</t>
+  </si>
+  <si>
+    <t>#match=all</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>#sample.number</t>
+  </si>
+  <si>
+    <t>#.qwer</t>
+  </si>
+  <si>
+    <t>*#.asdf</t>
+  </si>
+  <si>
     <t>#ignore</t>
   </si>
   <si>
     <t>Slice #</t>
   </si>
   <si>
-    <t/>
+    <t>Parent Subject ID</t>
+  </si>
+  <si>
+    <t>cells pellet wet wt. (g)</t>
   </si>
   <si>
     <t>01</t>
@@ -62,19 +68,19 @@
     <t>01_A0_Spleen_naive_0days_170427_UKy_GCH_rep1</t>
   </si>
   <si>
+    <t>zxcv</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
     <t>02_A1_Spleen_naive_0days_170427_UKy_GCH_rep2</t>
   </si>
   <si>
-    <t>#sample.id;*#protocol.id=mouse_tissue_collection,tissue_quench,frozen_tissue_grind</t>
-  </si>
-  <si>
-    <t>Parent Subject ID</t>
-  </si>
-  <si>
-    <t>cells pellet wet wt. (g)</t>
+    <t>3,4</t>
   </si>
   <si>
     <t>03_A0_Spleen_naive_0days_170427_UKy_GCH_rep1</t>
@@ -83,34 +89,7 @@
     <t>04_A1_Spleen_naive_0days_170427_UKy_GCH_rep2</t>
   </si>
   <si>
-    <t>#match=all</t>
-  </si>
-  <si>
-    <t>#sample.number</t>
-  </si>
-  <si>
-    <t>#sample.number.value</t>
-  </si>
-  <si>
-    <t>#.qwer</t>
-  </si>
-  <si>
-    <t>zxcv</t>
-  </si>
-  <si>
-    <t>asdf</t>
-  </si>
-  <si>
-    <t>*#.asdf</t>
-  </si>
-  <si>
-    <t>1,2</t>
-  </si>
-  <si>
-    <t>3,4</t>
-  </si>
-  <si>
-    <t>#sample.id.rename.tyui</t>
+    <t>#sample.id;*#.protocol.id=mouse_tissue_collection,tissue_quench,frozen_tissue_grind</t>
   </si>
 </sst>
 </file>
@@ -169,9 +148,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B24960FB-4346-4AF2-9B12-A33B8A3AD87B}"/>
-    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{D56F6827-3D3C-4527-81F8-0E7EBB9F2EBE}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B680C1DF-DE8B-40F3-BA9C-9060D3B2565C}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -184,23 +163,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="#convert"/>
-      <sheetName val="#tagging"/>
-      <sheetName val="#export"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,10 +461,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B88B3CF-E17B-43EF-9689-1619F3E4B025}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -511,7 +473,8 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="62.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="117.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -519,13 +482,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -533,7 +496,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -542,11 +505,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6D9B41-B91D-42D6-AA64-646CAC4C9AB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A3:L15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,75 +523,69 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="J7">
         <v>4</v>
       </c>
       <c r="K7" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
         <v>18</v>
-      </c>
-      <c r="L7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,49 +593,43 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
       <c r="B15">
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>